--- a/data/commodities_return_data.xlsx
+++ b/data/commodities_return_data.xlsx
@@ -878,7 +878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P258"/>
+  <dimension ref="A1:P259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13818,6 +13818,56 @@
         <v>-0.0438433151640315</v>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.1004221954161642</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.2156731413261888</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-0.01632275947028028</v>
+      </c>
+      <c r="E259" t="n">
+        <v>-0.02114427860696522</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.05321480759863606</v>
+      </c>
+      <c r="H259" t="n">
+        <v>-0.007488479262672709</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.05760517799352738</v>
+      </c>
+      <c r="J259" t="n">
+        <v>-0.03579502637528265</v>
+      </c>
+      <c r="K259" t="n">
+        <v>-0.1115648480888598</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.05748001522649404</v>
+      </c>
+      <c r="M259" t="n">
+        <v>-0.07300919842312747</v>
+      </c>
+      <c r="N259" t="n">
+        <v>-0.07646176911544222</v>
+      </c>
+      <c r="O259" t="n">
+        <v>-0.08670581954084355</v>
+      </c>
+      <c r="P259" t="n">
+        <v>-0.04542879399475952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
